--- a/biology/Botanique/Impatiens_sakeriana/Impatiens_sakeriana.xlsx
+++ b/biology/Botanique/Impatiens_sakeriana/Impatiens_sakeriana.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Impatiens sakeriana Hook.f. est une espèce de plante à fleurs de la famille des Balsaminaceae et du genre Impatiens, présente en Afrique tropicale.
 C'est une plante herbacée.
@@ -512,9 +524,11 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Son épithète spécifique sakeriana rend hommage à Alfred Saker, un missionnaire anglais qui accompagna l'explorateur Richard Francis Burton et le botaniste Gustav Mann dans leur ascension du mont Cameroun en 1861[3].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Son épithète spécifique sakeriana rend hommage à Alfred Saker, un missionnaire anglais qui accompagna l'explorateur Richard Francis Burton et le botaniste Gustav Mann dans leur ascension du mont Cameroun en 1861.
 </t>
         </is>
       </c>
@@ -543,9 +557,11 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Subendémique, assez répandue, mais vulnérable, l'espèce est présente sur plusieurs sites de l'ouest du Cameroun (mont Cameroun, mont Manengouba, Fosimondi, monts Bamboutos, Bamenda Highlands, réserve forestière de Bali Ngemba, mont Oku, Dom) et en Guinée équatoriale sur l'île de Bioko[4].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Subendémique, assez répandue, mais vulnérable, l'espèce est présente sur plusieurs sites de l'ouest du Cameroun (mont Cameroun, mont Manengouba, Fosimondi, monts Bamboutos, Bamenda Highlands, réserve forestière de Bali Ngemba, mont Oku, Dom) et en Guinée équatoriale sur l'île de Bioko.
 </t>
         </is>
       </c>
